--- a/natmiOut/YoungD2/LR-pairs_lrc2p/Ccl4-Ccr3.xlsx
+++ b/natmiOut/YoungD2/LR-pairs_lrc2p/Ccl4-Ccr3.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -74,6 +74,12 @@
   </si>
   <si>
     <t>Edge total expression derived specificity</t>
+  </si>
+  <si>
+    <t>ECs</t>
+  </si>
+  <si>
+    <t>FAPs</t>
   </si>
   <si>
     <t>M1</t>
@@ -446,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T4"/>
+  <dimension ref="A1:T16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -519,10 +525,10 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D2" t="s">
         <v>22</v>
@@ -531,173 +537,917 @@
         <v>1</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G2">
-        <v>55.1763409156363</v>
+        <v>0.2400906666666667</v>
       </c>
       <c r="H2">
-        <v>55.1763409156363</v>
+        <v>0.720272</v>
       </c>
       <c r="I2">
-        <v>0.05068158136763837</v>
+        <v>0.0002162447659744527</v>
       </c>
       <c r="J2">
-        <v>0.05068158136763837</v>
+        <v>0.0002162447659744527</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M2">
-        <v>0.910418709603816</v>
+        <v>0.1029326666666667</v>
       </c>
       <c r="N2">
-        <v>0.910418709603816</v>
+        <v>0.308798</v>
       </c>
       <c r="O2">
-        <v>1</v>
+        <v>0.0757654494554323</v>
       </c>
       <c r="P2">
-        <v>1</v>
+        <v>0.07576544945543232</v>
       </c>
       <c r="Q2">
-        <v>50.23357309707384</v>
+        <v>0.02471317256177778</v>
       </c>
       <c r="R2">
-        <v>50.23357309707384</v>
+        <v>0.222418553056</v>
       </c>
       <c r="S2">
-        <v>0.05068158136763837</v>
+        <v>1.638388188643918E-05</v>
       </c>
       <c r="T2">
-        <v>0.05068158136763837</v>
+        <v>1.638388188643918E-05</v>
       </c>
     </row>
     <row r="3" spans="1:20">
       <c r="A3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C3" t="s">
+        <v>26</v>
+      </c>
+      <c r="D3" t="s">
         <v>23</v>
       </c>
-      <c r="C3" t="s">
-        <v>24</v>
-      </c>
-      <c r="D3" t="s">
-        <v>22</v>
-      </c>
       <c r="E3">
         <v>1</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G3">
-        <v>110.013095581499</v>
+        <v>0.2400906666666667</v>
       </c>
       <c r="H3">
-        <v>110.013095581499</v>
+        <v>0.720272</v>
       </c>
       <c r="I3">
-        <v>0.1010512397649669</v>
+        <v>0.0002162447659744527</v>
       </c>
       <c r="J3">
-        <v>0.1010512397649669</v>
+        <v>0.0002162447659744527</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L3">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M3">
-        <v>0.910418709603816</v>
+        <v>0.24544</v>
       </c>
       <c r="N3">
-        <v>0.910418709603816</v>
+        <v>0.73632</v>
       </c>
       <c r="O3">
-        <v>1</v>
+        <v>0.1806605474874316</v>
       </c>
       <c r="P3">
-        <v>1</v>
+        <v>0.1806605474874316</v>
       </c>
       <c r="Q3">
-        <v>100.1579805188296</v>
+        <v>0.05892785322666667</v>
       </c>
       <c r="R3">
-        <v>100.1579805188296</v>
+        <v>0.53035067904</v>
       </c>
       <c r="S3">
-        <v>0.1010512397649669</v>
+        <v>3.906689781223615E-05</v>
       </c>
       <c r="T3">
-        <v>0.1010512397649669</v>
+        <v>3.906689781223614E-05</v>
       </c>
     </row>
     <row r="4" spans="1:20">
       <c r="A4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B4" t="s">
+        <v>25</v>
+      </c>
+      <c r="C4" t="s">
+        <v>26</v>
+      </c>
+      <c r="D4" t="s">
+        <v>24</v>
+      </c>
+      <c r="E4">
+        <v>1</v>
+      </c>
+      <c r="F4">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G4">
+        <v>0.2400906666666667</v>
+      </c>
+      <c r="H4">
+        <v>0.720272</v>
+      </c>
+      <c r="I4">
+        <v>0.0002162447659744527</v>
+      </c>
+      <c r="J4">
+        <v>0.0002162447659744527</v>
+      </c>
+      <c r="K4">
+        <v>3</v>
+      </c>
+      <c r="L4">
+        <v>1</v>
+      </c>
+      <c r="M4">
+        <v>1.010197333333333</v>
+      </c>
+      <c r="N4">
+        <v>3.030592</v>
+      </c>
+      <c r="O4">
+        <v>0.7435740030571361</v>
+      </c>
+      <c r="P4">
+        <v>0.7435740030571361</v>
+      </c>
+      <c r="Q4">
+        <v>0.2425389512248889</v>
+      </c>
+      <c r="R4">
+        <v>2.182850561024</v>
+      </c>
+      <c r="S4">
+        <v>0.0001607939862757774</v>
+      </c>
+      <c r="T4">
+        <v>0.0001607939862757773</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20">
+      <c r="A5" t="s">
+        <v>21</v>
+      </c>
+      <c r="B5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D5" t="s">
         <v>22</v>
       </c>
-      <c r="B4" t="s">
+      <c r="E5">
+        <v>1</v>
+      </c>
+      <c r="F5">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G5">
+        <v>0.084971</v>
+      </c>
+      <c r="H5">
+        <v>0.254913</v>
+      </c>
+      <c r="I5">
+        <v>7.653164641808325E-05</v>
+      </c>
+      <c r="J5">
+        <v>7.653164641808324E-05</v>
+      </c>
+      <c r="K5">
+        <v>2</v>
+      </c>
+      <c r="L5">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M5">
+        <v>0.1029326666666667</v>
+      </c>
+      <c r="N5">
+        <v>0.308798</v>
+      </c>
+      <c r="O5">
+        <v>0.0757654494554323</v>
+      </c>
+      <c r="P5">
+        <v>0.07576544945543232</v>
+      </c>
+      <c r="Q5">
+        <v>0.008746291619333334</v>
+      </c>
+      <c r="R5">
+        <v>0.078716624574</v>
+      </c>
+      <c r="S5">
+        <v>5.798454588430303E-06</v>
+      </c>
+      <c r="T5">
+        <v>5.798454588430303E-06</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
+      <c r="A6" t="s">
+        <v>21</v>
+      </c>
+      <c r="B6" t="s">
+        <v>25</v>
+      </c>
+      <c r="C6" t="s">
+        <v>26</v>
+      </c>
+      <c r="D6" t="s">
         <v>23</v>
       </c>
-      <c r="C4" t="s">
+      <c r="E6">
+        <v>1</v>
+      </c>
+      <c r="F6">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G6">
+        <v>0.084971</v>
+      </c>
+      <c r="H6">
+        <v>0.254913</v>
+      </c>
+      <c r="I6">
+        <v>7.653164641808325E-05</v>
+      </c>
+      <c r="J6">
+        <v>7.653164641808324E-05</v>
+      </c>
+      <c r="K6">
+        <v>2</v>
+      </c>
+      <c r="L6">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M6">
+        <v>0.24544</v>
+      </c>
+      <c r="N6">
+        <v>0.73632</v>
+      </c>
+      <c r="O6">
+        <v>0.1806605474874316</v>
+      </c>
+      <c r="P6">
+        <v>0.1806605474874316</v>
+      </c>
+      <c r="Q6">
+        <v>0.02085528224</v>
+      </c>
+      <c r="R6">
+        <v>0.18769754016</v>
+      </c>
+      <c r="S6">
+        <v>1.382624914200546E-05</v>
+      </c>
+      <c r="T6">
+        <v>1.382624914200545E-05</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
+      <c r="A7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7" t="s">
+        <v>25</v>
+      </c>
+      <c r="C7" t="s">
+        <v>26</v>
+      </c>
+      <c r="D7" t="s">
         <v>24</v>
       </c>
-      <c r="D4" t="s">
+      <c r="E7">
+        <v>1</v>
+      </c>
+      <c r="F7">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G7">
+        <v>0.084971</v>
+      </c>
+      <c r="H7">
+        <v>0.254913</v>
+      </c>
+      <c r="I7">
+        <v>7.653164641808325E-05</v>
+      </c>
+      <c r="J7">
+        <v>7.653164641808324E-05</v>
+      </c>
+      <c r="K7">
+        <v>3</v>
+      </c>
+      <c r="L7">
+        <v>1</v>
+      </c>
+      <c r="M7">
+        <v>1.010197333333333</v>
+      </c>
+      <c r="N7">
+        <v>3.030592</v>
+      </c>
+      <c r="O7">
+        <v>0.7435740030571361</v>
+      </c>
+      <c r="P7">
+        <v>0.7435740030571361</v>
+      </c>
+      <c r="Q7">
+        <v>0.08583747761066668</v>
+      </c>
+      <c r="R7">
+        <v>0.7725372984959999</v>
+      </c>
+      <c r="S7">
+        <v>5.690694268764749E-05</v>
+      </c>
+      <c r="T7">
+        <v>5.690694268764748E-05</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="A8" t="s">
         <v>22</v>
       </c>
-      <c r="E4">
-        <v>1</v>
-      </c>
-      <c r="F4">
-        <v>1</v>
-      </c>
-      <c r="G4">
-        <v>923.49681651051</v>
-      </c>
-      <c r="H4">
-        <v>923.49681651051</v>
-      </c>
-      <c r="I4">
-        <v>0.8482671788673948</v>
-      </c>
-      <c r="J4">
-        <v>0.8482671788673948</v>
-      </c>
-      <c r="K4">
-        <v>1</v>
-      </c>
-      <c r="L4">
-        <v>1</v>
-      </c>
-      <c r="M4">
-        <v>0.910418709603816</v>
-      </c>
-      <c r="N4">
-        <v>0.910418709603816</v>
-      </c>
-      <c r="O4">
-        <v>1</v>
-      </c>
-      <c r="P4">
-        <v>1</v>
-      </c>
-      <c r="Q4">
-        <v>840.7687800107306</v>
-      </c>
-      <c r="R4">
-        <v>840.7687800107306</v>
-      </c>
-      <c r="S4">
-        <v>0.8482671788673948</v>
-      </c>
-      <c r="T4">
-        <v>0.8482671788673948</v>
+      <c r="B8" t="s">
+        <v>25</v>
+      </c>
+      <c r="C8" t="s">
+        <v>26</v>
+      </c>
+      <c r="D8" t="s">
+        <v>22</v>
+      </c>
+      <c r="E8">
+        <v>3</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8">
+        <v>62.546238</v>
+      </c>
+      <c r="H8">
+        <v>187.638714</v>
+      </c>
+      <c r="I8">
+        <v>0.05633412071644775</v>
+      </c>
+      <c r="J8">
+        <v>0.05633412071644775</v>
+      </c>
+      <c r="K8">
+        <v>2</v>
+      </c>
+      <c r="L8">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M8">
+        <v>0.1029326666666667</v>
+      </c>
+      <c r="N8">
+        <v>0.308798</v>
+      </c>
+      <c r="O8">
+        <v>0.0757654494554323</v>
+      </c>
+      <c r="P8">
+        <v>0.07576544945543232</v>
+      </c>
+      <c r="Q8">
+        <v>6.438051067308</v>
+      </c>
+      <c r="R8">
+        <v>57.942459605772</v>
+      </c>
+      <c r="S8">
+        <v>0.004268179975758244</v>
+      </c>
+      <c r="T8">
+        <v>0.004268179975758245</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9" t="s">
+        <v>22</v>
+      </c>
+      <c r="B9" t="s">
+        <v>25</v>
+      </c>
+      <c r="C9" t="s">
+        <v>26</v>
+      </c>
+      <c r="D9" t="s">
+        <v>23</v>
+      </c>
+      <c r="E9">
+        <v>3</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>62.546238</v>
+      </c>
+      <c r="H9">
+        <v>187.638714</v>
+      </c>
+      <c r="I9">
+        <v>0.05633412071644775</v>
+      </c>
+      <c r="J9">
+        <v>0.05633412071644775</v>
+      </c>
+      <c r="K9">
+        <v>2</v>
+      </c>
+      <c r="L9">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M9">
+        <v>0.24544</v>
+      </c>
+      <c r="N9">
+        <v>0.73632</v>
+      </c>
+      <c r="O9">
+        <v>0.1806605474874316</v>
+      </c>
+      <c r="P9">
+        <v>0.1806605474874316</v>
+      </c>
+      <c r="Q9">
+        <v>15.35134865472</v>
+      </c>
+      <c r="R9">
+        <v>138.16213789248</v>
+      </c>
+      <c r="S9">
+        <v>0.01017735309085652</v>
+      </c>
+      <c r="T9">
+        <v>0.01017735309085652</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" t="s">
+        <v>25</v>
+      </c>
+      <c r="C10" t="s">
+        <v>26</v>
+      </c>
+      <c r="D10" t="s">
+        <v>24</v>
+      </c>
+      <c r="E10">
+        <v>3</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>62.546238</v>
+      </c>
+      <c r="H10">
+        <v>187.638714</v>
+      </c>
+      <c r="I10">
+        <v>0.05633412071644775</v>
+      </c>
+      <c r="J10">
+        <v>0.05633412071644775</v>
+      </c>
+      <c r="K10">
+        <v>3</v>
+      </c>
+      <c r="L10">
+        <v>1</v>
+      </c>
+      <c r="M10">
+        <v>1.010197333333333</v>
+      </c>
+      <c r="N10">
+        <v>3.030592</v>
+      </c>
+      <c r="O10">
+        <v>0.7435740030571361</v>
+      </c>
+      <c r="P10">
+        <v>0.7435740030571361</v>
+      </c>
+      <c r="Q10">
+        <v>63.184042837632</v>
+      </c>
+      <c r="R10">
+        <v>568.6563855386879</v>
+      </c>
+      <c r="S10">
+        <v>0.04188858764983299</v>
+      </c>
+      <c r="T10">
+        <v>0.04188858764983299</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" t="s">
+        <v>23</v>
+      </c>
+      <c r="B11" t="s">
+        <v>25</v>
+      </c>
+      <c r="C11" t="s">
+        <v>26</v>
+      </c>
+      <c r="D11" t="s">
+        <v>22</v>
+      </c>
+      <c r="E11">
+        <v>3</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <v>110.2432883333333</v>
+      </c>
+      <c r="H11">
+        <v>330.729865</v>
+      </c>
+      <c r="I11">
+        <v>0.09929388100285355</v>
+      </c>
+      <c r="J11">
+        <v>0.09929388100285354</v>
+      </c>
+      <c r="K11">
+        <v>2</v>
+      </c>
+      <c r="L11">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M11">
+        <v>0.1029326666666667</v>
+      </c>
+      <c r="N11">
+        <v>0.308798</v>
+      </c>
+      <c r="O11">
+        <v>0.0757654494554323</v>
+      </c>
+      <c r="P11">
+        <v>0.07576544945543232</v>
+      </c>
+      <c r="Q11">
+        <v>11.34763565025222</v>
+      </c>
+      <c r="R11">
+        <v>102.12872085227</v>
+      </c>
+      <c r="S11">
+        <v>0.007523045522355411</v>
+      </c>
+      <c r="T11">
+        <v>0.007523045522355411</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
+        <v>23</v>
+      </c>
+      <c r="B12" t="s">
+        <v>25</v>
+      </c>
+      <c r="C12" t="s">
+        <v>26</v>
+      </c>
+      <c r="D12" t="s">
+        <v>23</v>
+      </c>
+      <c r="E12">
+        <v>3</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="G12">
+        <v>110.2432883333333</v>
+      </c>
+      <c r="H12">
+        <v>330.729865</v>
+      </c>
+      <c r="I12">
+        <v>0.09929388100285355</v>
+      </c>
+      <c r="J12">
+        <v>0.09929388100285354</v>
+      </c>
+      <c r="K12">
+        <v>2</v>
+      </c>
+      <c r="L12">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M12">
+        <v>0.24544</v>
+      </c>
+      <c r="N12">
+        <v>0.73632</v>
+      </c>
+      <c r="O12">
+        <v>0.1806605474874316</v>
+      </c>
+      <c r="P12">
+        <v>0.1806605474874316</v>
+      </c>
+      <c r="Q12">
+        <v>27.05811268853333</v>
+      </c>
+      <c r="R12">
+        <v>243.5230141968</v>
+      </c>
+      <c r="S12">
+        <v>0.01793848690412741</v>
+      </c>
+      <c r="T12">
+        <v>0.0179384869041274</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>23</v>
+      </c>
+      <c r="B13" t="s">
+        <v>25</v>
+      </c>
+      <c r="C13" t="s">
+        <v>26</v>
+      </c>
+      <c r="D13" t="s">
+        <v>24</v>
+      </c>
+      <c r="E13">
+        <v>3</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>110.2432883333333</v>
+      </c>
+      <c r="H13">
+        <v>330.729865</v>
+      </c>
+      <c r="I13">
+        <v>0.09929388100285355</v>
+      </c>
+      <c r="J13">
+        <v>0.09929388100285354</v>
+      </c>
+      <c r="K13">
+        <v>3</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>1.010197333333333</v>
+      </c>
+      <c r="N13">
+        <v>3.030592</v>
+      </c>
+      <c r="O13">
+        <v>0.7435740030571361</v>
+      </c>
+      <c r="P13">
+        <v>0.7435740030571361</v>
+      </c>
+      <c r="Q13">
+        <v>111.3674758922311</v>
+      </c>
+      <c r="R13">
+        <v>1002.30728303008</v>
+      </c>
+      <c r="S13">
+        <v>0.07383234857637073</v>
+      </c>
+      <c r="T13">
+        <v>0.07383234857637072</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>24</v>
+      </c>
+      <c r="B14" t="s">
+        <v>25</v>
+      </c>
+      <c r="C14" t="s">
+        <v>26</v>
+      </c>
+      <c r="D14" t="s">
+        <v>22</v>
+      </c>
+      <c r="E14">
+        <v>3</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <v>937.1581419999999</v>
+      </c>
+      <c r="H14">
+        <v>2811.474426</v>
+      </c>
+      <c r="I14">
+        <v>0.8440792218683062</v>
+      </c>
+      <c r="J14">
+        <v>0.8440792218683061</v>
+      </c>
+      <c r="K14">
+        <v>2</v>
+      </c>
+      <c r="L14">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M14">
+        <v>0.1029326666666667</v>
+      </c>
+      <c r="N14">
+        <v>0.308798</v>
+      </c>
+      <c r="O14">
+        <v>0.0757654494554323</v>
+      </c>
+      <c r="P14">
+        <v>0.07576544945543232</v>
+      </c>
+      <c r="Q14">
+        <v>96.46418664443866</v>
+      </c>
+      <c r="R14">
+        <v>868.177679799948</v>
+      </c>
+      <c r="S14">
+        <v>0.06395204162084378</v>
+      </c>
+      <c r="T14">
+        <v>0.06395204162084378</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>24</v>
+      </c>
+      <c r="B15" t="s">
+        <v>25</v>
+      </c>
+      <c r="C15" t="s">
+        <v>26</v>
+      </c>
+      <c r="D15" t="s">
+        <v>23</v>
+      </c>
+      <c r="E15">
+        <v>3</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15">
+        <v>937.1581419999999</v>
+      </c>
+      <c r="H15">
+        <v>2811.474426</v>
+      </c>
+      <c r="I15">
+        <v>0.8440792218683062</v>
+      </c>
+      <c r="J15">
+        <v>0.8440792218683061</v>
+      </c>
+      <c r="K15">
+        <v>2</v>
+      </c>
+      <c r="L15">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M15">
+        <v>0.24544</v>
+      </c>
+      <c r="N15">
+        <v>0.73632</v>
+      </c>
+      <c r="O15">
+        <v>0.1806605474874316</v>
+      </c>
+      <c r="P15">
+        <v>0.1806605474874316</v>
+      </c>
+      <c r="Q15">
+        <v>230.01609437248</v>
+      </c>
+      <c r="R15">
+        <v>2070.14484935232</v>
+      </c>
+      <c r="S15">
+        <v>0.1524918143454935</v>
+      </c>
+      <c r="T15">
+        <v>0.1524918143454934</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>24</v>
+      </c>
+      <c r="B16" t="s">
+        <v>25</v>
+      </c>
+      <c r="C16" t="s">
+        <v>26</v>
+      </c>
+      <c r="D16" t="s">
+        <v>24</v>
+      </c>
+      <c r="E16">
+        <v>3</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>937.1581419999999</v>
+      </c>
+      <c r="H16">
+        <v>2811.474426</v>
+      </c>
+      <c r="I16">
+        <v>0.8440792218683062</v>
+      </c>
+      <c r="J16">
+        <v>0.8440792218683061</v>
+      </c>
+      <c r="K16">
+        <v>3</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>1.010197333333333</v>
+      </c>
+      <c r="N16">
+        <v>3.030592</v>
+      </c>
+      <c r="O16">
+        <v>0.7435740030571361</v>
+      </c>
+      <c r="P16">
+        <v>0.7435740030571361</v>
+      </c>
+      <c r="Q16">
+        <v>946.7146559600212</v>
+      </c>
+      <c r="R16">
+        <v>8520.43190364019</v>
+      </c>
+      <c r="S16">
+        <v>0.6276353659019689</v>
+      </c>
+      <c r="T16">
+        <v>0.6276353659019689</v>
       </c>
     </row>
   </sheetData>
